--- a/back/lecturerAfter.xlsx
+++ b/back/lecturerAfter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t xml:space="preserve">Giảng viên</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">bo mon / ptn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đh hay sau đh</t>
   </si>
   <si>
     <t xml:space="preserve">Chuc vu</t>
@@ -158,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -191,13 +188,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="&quot;Times New Roman&quot;"/>
       <family val="0"/>
       <charset val="1"/>
@@ -206,12 +196,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -278,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,15 +275,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,11 +287,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -332,18 +308,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,334 +336,274 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
